--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.5811703937302604</v>
+        <v>0.5705563583352558</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.5774576320792454</v>
+        <v>0.5671364262344255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.5777560363502648</v>
+        <v>0.5726349796273064</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.5790214985339739</v>
+        <v>0.5724119201840667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.5800196476824288</v>
+        <v>0.5673521250123125</v>
       </c>
     </row>
   </sheetData>
